--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#70_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#FC.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#70_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#FC.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.403085615534461</v>
+        <v>-0.4692069132155259</v>
       </c>
       <c r="C2">
-        <v>0.2776149770732088</v>
+        <v>0.317395251480191</v>
       </c>
       <c r="D2">
-        <v>-0.347223771478949</v>
+        <v>-0.5808204301556197</v>
       </c>
       <c r="E2">
-        <v>-0.408708203368827</v>
+        <v>-0.5111339681597199</v>
       </c>
       <c r="F2">
-        <v>-0.5133399816221955</v>
+        <v>-0.6357929136614729</v>
       </c>
       <c r="G2">
-        <v>-0.402014349252498</v>
+        <v>-0.5889781676152387</v>
       </c>
       <c r="H2">
-        <v>-0.08308959022051042</v>
+        <v>0.177837750816874</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.0332328754346571</v>
+        <v>-0.452871803931002</v>
       </c>
       <c r="C3">
-        <v>0.008880634166674523</v>
+        <v>0.2542409612988872</v>
       </c>
       <c r="D3">
-        <v>-0.02502151313111071</v>
+        <v>-0.4182964909972943</v>
       </c>
       <c r="E3">
-        <v>-0.04775502556302538</v>
+        <v>-0.6367278068342059</v>
       </c>
       <c r="F3">
-        <v>-0.03580315803313744</v>
+        <v>-0.5692622858667878</v>
       </c>
       <c r="G3">
-        <v>-0.0334354737581592</v>
+        <v>-0.456439881774403</v>
       </c>
       <c r="H3">
-        <v>-0.01609993874356106</v>
+        <v>-0.02068814606057135</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.1634198752704222</v>
+        <v>-0.1606105610220558</v>
       </c>
       <c r="C4">
-        <v>0.09662650286360366</v>
+        <v>0.0529429804402213</v>
       </c>
       <c r="D4">
-        <v>-0.09052508457587953</v>
+        <v>-0.1192661443848445</v>
       </c>
       <c r="E4">
-        <v>-0.2350022398458534</v>
+        <v>-0.2038488654958523</v>
       </c>
       <c r="F4">
-        <v>-0.2276178470925941</v>
+        <v>-0.2196887783006847</v>
       </c>
       <c r="G4">
-        <v>-0.1771216415326193</v>
+        <v>-0.2391097990439176</v>
       </c>
       <c r="H4">
-        <v>-0.07766519549876068</v>
+        <v>-0.06001281619261239</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.3489253842176013</v>
+        <v>-0.3931508135231365</v>
       </c>
       <c r="C5">
-        <v>0.2645444293661333</v>
+        <v>0.2230369582044701</v>
       </c>
       <c r="D5">
-        <v>-0.3615951202475362</v>
+        <v>-0.3239439254125167</v>
       </c>
       <c r="E5">
-        <v>-0.4809436925443206</v>
+        <v>-0.5050595659699444</v>
       </c>
       <c r="F5">
-        <v>-0.4684363034989529</v>
+        <v>-0.4245779728660295</v>
       </c>
       <c r="G5">
-        <v>-0.2348452277185986</v>
+        <v>-0.4152430815259459</v>
       </c>
       <c r="H5">
-        <v>-0.04264999169989676</v>
+        <v>0.09931002218719191</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.003701485786464158</v>
+        <v>-0.5741849622163486</v>
       </c>
       <c r="C6">
-        <v>0.001541207765381186</v>
+        <v>0.5115548434337895</v>
       </c>
       <c r="D6">
-        <v>-0.002819699085624477</v>
+        <v>-0.5459536620375139</v>
       </c>
       <c r="E6">
-        <v>-0.004792606611208604</v>
+        <v>-0.4699234076084851</v>
       </c>
       <c r="F6">
-        <v>-0.003924335979667845</v>
+        <v>-0.6800728549737909</v>
       </c>
       <c r="G6">
-        <v>-0.003726813171492791</v>
+        <v>-0.6549939345734779</v>
       </c>
       <c r="H6">
-        <v>-0.002352813209028903</v>
+        <v>0.1284344647986602</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.6107726948773109</v>
+        <v>-0.3116432699429064</v>
       </c>
       <c r="C7">
-        <v>0.1127057580501433</v>
+        <v>0.2583320989057488</v>
       </c>
       <c r="D7">
-        <v>-0.4387910174877999</v>
+        <v>-0.3702605289718071</v>
       </c>
       <c r="E7">
-        <v>-0.8298100855684181</v>
+        <v>-0.3745179337937484</v>
       </c>
       <c r="F7">
-        <v>-0.5221447471763687</v>
+        <v>-0.4530078714240042</v>
       </c>
       <c r="G7">
-        <v>-0.2402094032512122</v>
+        <v>-0.2522914503659475</v>
       </c>
       <c r="H7">
-        <v>-0.08134103553204181</v>
+        <v>-0.08843144494991792</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.4802977607340512</v>
+        <v>-0.3278372359422396</v>
       </c>
       <c r="C8">
-        <v>0.3942715748266592</v>
+        <v>0.2618393939257143</v>
       </c>
       <c r="D8">
-        <v>-0.4815942879802685</v>
+        <v>-0.30643462956863</v>
       </c>
       <c r="E8">
-        <v>-0.4565370046872373</v>
+        <v>-0.4023128276505225</v>
       </c>
       <c r="F8">
-        <v>-0.8887375447886233</v>
+        <v>-0.431112041474158</v>
       </c>
       <c r="G8">
-        <v>-0.4824581954488129</v>
+        <v>-0.3307273698127072</v>
       </c>
       <c r="H8">
-        <v>0.09938449275625387</v>
+        <v>-0.1367178536570842</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.4157266046520824</v>
+        <v>-0.3801530382059597</v>
       </c>
       <c r="C9">
-        <v>0.2431520222105127</v>
+        <v>0.2278912856987239</v>
       </c>
       <c r="D9">
-        <v>-0.5073868577952897</v>
+        <v>-0.3559290418171598</v>
       </c>
       <c r="E9">
-        <v>-0.4842623832302725</v>
+        <v>-0.5159772591113958</v>
       </c>
       <c r="F9">
-        <v>-0.623260077037204</v>
+        <v>-0.4608421339729504</v>
       </c>
       <c r="G9">
-        <v>-0.506252124062572</v>
+        <v>-0.402920959075198</v>
       </c>
       <c r="H9">
-        <v>0.04031663682414072</v>
+        <v>-0.01199766116869637</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.3253860238152828</v>
+        <v>-0.7233280463571298</v>
       </c>
       <c r="C10">
-        <v>0.07895723172676823</v>
+        <v>0.8090165804316778</v>
       </c>
       <c r="D10">
-        <v>-0.3231771386575256</v>
+        <v>-1.02534694637097</v>
       </c>
       <c r="E10">
-        <v>-0.536120986647579</v>
+        <v>-0.5417466365856846</v>
       </c>
       <c r="F10">
-        <v>-0.464594808428701</v>
+        <v>-0.9114523595710626</v>
       </c>
       <c r="G10">
-        <v>-0.3170868778632745</v>
+        <v>-0.293675994599033</v>
       </c>
       <c r="H10">
-        <v>0.0389489708403291</v>
+        <v>-0.114921767891181</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.6205902204845638</v>
+        <v>-0.004115541125925512</v>
       </c>
       <c r="C11">
-        <v>0.5115037950715379</v>
+        <v>0.0009626122641902391</v>
       </c>
       <c r="D11">
-        <v>-0.5957209349363267</v>
+        <v>-0.003570977281392294</v>
       </c>
       <c r="E11">
-        <v>-0.7067155077715028</v>
+        <v>-0.00428581757306529</v>
       </c>
       <c r="F11">
-        <v>-0.727282757102112</v>
+        <v>-0.003431371720405805</v>
       </c>
       <c r="G11">
-        <v>-0.4248267373139801</v>
+        <v>-0.005068752052483041</v>
       </c>
       <c r="H11">
-        <v>-0.02635455077694701</v>
+        <v>-0.003597547216161357</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.004082091871390298</v>
+        <v>-0.3585694496287672</v>
       </c>
       <c r="C12">
-        <v>0.001564953102426035</v>
+        <v>0.2342144785210146</v>
       </c>
       <c r="D12">
-        <v>-0.002859542753646126</v>
+        <v>-0.2776934197126125</v>
       </c>
       <c r="E12">
-        <v>-0.004531098050292363</v>
+        <v>-0.4405034638701944</v>
       </c>
       <c r="F12">
-        <v>-0.004193862171485888</v>
+        <v>-0.5312984642684321</v>
       </c>
       <c r="G12">
-        <v>-0.004385921607241533</v>
+        <v>-0.4273499425359004</v>
       </c>
       <c r="H12">
-        <v>-0.002670252370322261</v>
+        <v>-0.01724612968835212</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.03505778717649926</v>
+        <v>-0.1776027608248506</v>
       </c>
       <c r="C13">
-        <v>0.01319649135356905</v>
+        <v>0.1072097325911386</v>
       </c>
       <c r="D13">
-        <v>-0.03545419405700822</v>
+        <v>-0.0739170190649189</v>
       </c>
       <c r="E13">
-        <v>-0.03189127463195312</v>
+        <v>-0.2143106849923429</v>
       </c>
       <c r="F13">
-        <v>-0.03670562381289232</v>
+        <v>-0.2120593750135512</v>
       </c>
       <c r="G13">
-        <v>-0.03541953177156707</v>
+        <v>-0.2407177769744313</v>
       </c>
       <c r="H13">
-        <v>-0.0287047637901684</v>
+        <v>-0.1077439919833907</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.7019506399098436</v>
+        <v>-0.4775540793424671</v>
       </c>
       <c r="C14">
-        <v>0.07579998683501249</v>
+        <v>0.4683669445732357</v>
       </c>
       <c r="D14">
-        <v>-0.4313879455374872</v>
+        <v>-0.6160054194935858</v>
       </c>
       <c r="E14">
-        <v>-0.9006954777962237</v>
+        <v>-0.5502489376204169</v>
       </c>
       <c r="F14">
-        <v>-0.841822225570769</v>
+        <v>-0.5284016276199747</v>
       </c>
       <c r="G14">
-        <v>-0.5091060299010478</v>
+        <v>-0.3826269204247707</v>
       </c>
       <c r="H14">
-        <v>-0.08406407656483966</v>
+        <v>0.07337265798144089</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.004313461209089131</v>
+        <v>-0.3905773506838554</v>
       </c>
       <c r="C15">
-        <v>0.001511656243486904</v>
+        <v>0.2025194677852797</v>
       </c>
       <c r="D15">
-        <v>-0.003091315908596085</v>
+        <v>-0.3589581568584208</v>
       </c>
       <c r="E15">
-        <v>-0.004651498751285245</v>
+        <v>-0.4061155969213036</v>
       </c>
       <c r="F15">
-        <v>-0.003270745887807695</v>
+        <v>-0.4276314793579826</v>
       </c>
       <c r="G15">
-        <v>-0.004520758493304297</v>
+        <v>-0.5052873366307266</v>
       </c>
       <c r="H15">
-        <v>-0.003837289532705658</v>
+        <v>-0.1563075344978935</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.6327138854084758</v>
+        <v>-0.427743438629789</v>
       </c>
       <c r="C16">
-        <v>0.3093754941354899</v>
+        <v>0.479013958782133</v>
       </c>
       <c r="D16">
-        <v>-0.5042081023507712</v>
+        <v>-0.5578168707253019</v>
       </c>
       <c r="E16">
-        <v>-0.5086984376533668</v>
+        <v>-0.400398708340975</v>
       </c>
       <c r="F16">
-        <v>-0.9439211137848521</v>
+        <v>-0.6085673655135075</v>
       </c>
       <c r="G16">
-        <v>-0.6876089169756565</v>
+        <v>-0.295854944879421</v>
       </c>
       <c r="H16">
-        <v>0.1593983648367623</v>
+        <v>-0.009062070481734307</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.5469176047141923</v>
+        <v>-0.003478228905136119</v>
       </c>
       <c r="C17">
-        <v>0.2412361409447603</v>
+        <v>0.002003827780782474</v>
       </c>
       <c r="D17">
-        <v>-0.4649007997685412</v>
+        <v>-0.002383918944217706</v>
       </c>
       <c r="E17">
-        <v>-0.6054931191759053</v>
+        <v>-0.004908043397331516</v>
       </c>
       <c r="F17">
-        <v>-0.7188112136826326</v>
+        <v>-0.003918371801234251</v>
       </c>
       <c r="G17">
-        <v>-0.4340696947885638</v>
+        <v>-0.003879040311842634</v>
       </c>
       <c r="H17">
-        <v>-0.04033989075752998</v>
+        <v>-0.002371289176766226</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.003696216166525327</v>
+        <v>-0.003098456886916819</v>
       </c>
       <c r="C18">
-        <v>0.0006828751683216841</v>
+        <v>0.001004846667898087</v>
       </c>
       <c r="D18">
-        <v>-0.002805573007536578</v>
+        <v>-0.003643482891590012</v>
       </c>
       <c r="E18">
-        <v>-0.004506112617450693</v>
+        <v>-0.004188126018125787</v>
       </c>
       <c r="F18">
-        <v>-0.004077873663591424</v>
+        <v>-0.002547130429553704</v>
       </c>
       <c r="G18">
-        <v>-0.003788658403016161</v>
+        <v>-0.003938755675987772</v>
       </c>
       <c r="H18">
-        <v>-0.00288840384611693</v>
+        <v>-0.002874946819884018</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.5704770968158923</v>
+        <v>-0.3425149490482639</v>
       </c>
       <c r="C19">
-        <v>0.5905150244622007</v>
+        <v>0.3801371305381434</v>
       </c>
       <c r="D19">
-        <v>-0.6575066857546669</v>
+        <v>-0.3616030608590395</v>
       </c>
       <c r="E19">
-        <v>-0.4844831862715865</v>
+        <v>-0.4029023130938844</v>
       </c>
       <c r="F19">
-        <v>-0.866310401545804</v>
+        <v>-0.4704281357195909</v>
       </c>
       <c r="G19">
-        <v>-0.4960876489546346</v>
+        <v>-0.2647538799952682</v>
       </c>
       <c r="H19">
-        <v>0.1431898345545347</v>
+        <v>-0.1580590689010429</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.0280682106612661</v>
+        <v>-0.2901453458625835</v>
       </c>
       <c r="C20">
-        <v>0.01125833090657666</v>
+        <v>0.4076783953553964</v>
       </c>
       <c r="D20">
-        <v>-0.0228087931676318</v>
+        <v>-0.4679424939411578</v>
       </c>
       <c r="E20">
-        <v>-0.03291493897780668</v>
+        <v>-0.3315328264028867</v>
       </c>
       <c r="F20">
-        <v>-0.03748879222586772</v>
+        <v>-0.3084501688036015</v>
       </c>
       <c r="G20">
-        <v>-0.03062750545490924</v>
+        <v>-0.3576907891536614</v>
       </c>
       <c r="H20">
-        <v>-0.0259130655874048</v>
+        <v>-0.08914572514760623</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.4537331689566073</v>
+        <v>-0.003813977673667032</v>
       </c>
       <c r="C21">
-        <v>0.4374338842908355</v>
+        <v>0.001357455416641187</v>
       </c>
       <c r="D21">
-        <v>-0.5249731103897434</v>
+        <v>-0.002929676333264325</v>
       </c>
       <c r="E21">
-        <v>-0.4552159231499408</v>
+        <v>-0.004942141732402627</v>
       </c>
       <c r="F21">
-        <v>-0.7937414370837896</v>
+        <v>-0.003342868875247108</v>
       </c>
       <c r="G21">
-        <v>-0.5109268831220906</v>
+        <v>-0.005207894140121995</v>
       </c>
       <c r="H21">
-        <v>0.0965617605799496</v>
+        <v>-0.001829673092624225</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.03077879227269658</v>
+        <v>-0.6028353382367202</v>
       </c>
       <c r="C22">
-        <v>0.002923955645914008</v>
+        <v>0.5008745374085636</v>
       </c>
       <c r="D22">
-        <v>-0.03205794347043864</v>
+        <v>-0.4548673896918935</v>
       </c>
       <c r="E22">
-        <v>-0.03053390635289188</v>
+        <v>-0.7532676554207471</v>
       </c>
       <c r="F22">
-        <v>-0.03931054629687336</v>
+        <v>-0.8086235171828292</v>
       </c>
       <c r="G22">
-        <v>-0.03251829026539074</v>
+        <v>-0.334970515010019</v>
       </c>
       <c r="H22">
-        <v>-0.02455450928337289</v>
+        <v>0.05282303676503707</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.02921623454621338</v>
+        <v>-0.6642391543668013</v>
       </c>
       <c r="C23">
-        <v>0.005980159448728299</v>
+        <v>0.4701537164086252</v>
       </c>
       <c r="D23">
-        <v>-0.02120389415541505</v>
+        <v>-0.418024778448708</v>
       </c>
       <c r="E23">
-        <v>-0.0357123536051298</v>
+        <v>-0.3209030670922851</v>
       </c>
       <c r="F23">
-        <v>-0.03601238886574639</v>
+        <v>-0.797443705931588</v>
       </c>
       <c r="G23">
-        <v>-0.03514515647279231</v>
+        <v>-0.9089813701307182</v>
       </c>
       <c r="H23">
-        <v>-0.02557407213105711</v>
+        <v>-0.106137782606089</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.73577214115677</v>
+        <v>-0.437496541630614</v>
       </c>
       <c r="C24">
-        <v>0.6259730690517319</v>
+        <v>0.5098145815958419</v>
       </c>
       <c r="D24">
-        <v>-0.6903223744894748</v>
+        <v>-0.5982281867144982</v>
       </c>
       <c r="E24">
-        <v>-0.490307090504261</v>
+        <v>-0.5454512047418273</v>
       </c>
       <c r="F24">
-        <v>-0.941489770650317</v>
+        <v>-0.4320359861962363</v>
       </c>
       <c r="G24">
-        <v>-0.5909625624120202</v>
+        <v>-0.3891452603842395</v>
       </c>
       <c r="H24">
-        <v>0.01310295049549052</v>
+        <v>-0.07079797990884951</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.003834933712234158</v>
+        <v>-0.003875844286524293</v>
       </c>
       <c r="C25">
-        <v>0.0006903278467389098</v>
+        <v>0.001855820205646835</v>
       </c>
       <c r="D25">
-        <v>-0.003034777285561094</v>
+        <v>-0.003859348670175916</v>
       </c>
       <c r="E25">
-        <v>-0.004220419509957041</v>
+        <v>-0.004466998839513762</v>
       </c>
       <c r="F25">
-        <v>-0.004215406652107558</v>
+        <v>-0.003682136420036127</v>
       </c>
       <c r="G25">
-        <v>-0.004382578985682613</v>
+        <v>-0.004397762030558054</v>
       </c>
       <c r="H25">
-        <v>-0.002459383337897423</v>
+        <v>-0.002554511550780839</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.003694391587985883</v>
+        <v>-0.4795407832232037</v>
       </c>
       <c r="C26">
-        <v>0.001311932142333121</v>
+        <v>0.3426491917536931</v>
       </c>
       <c r="D26">
-        <v>-0.002922721533238276</v>
+        <v>-0.7328933925049181</v>
       </c>
       <c r="E26">
-        <v>-0.004520972414691569</v>
+        <v>-0.2918619995290215</v>
       </c>
       <c r="F26">
-        <v>-0.004145209765783281</v>
+        <v>-0.6627003143135373</v>
       </c>
       <c r="G26">
-        <v>-0.004168563336799762</v>
+        <v>-0.5794820498231401</v>
       </c>
       <c r="H26">
-        <v>-0.001669990882903572</v>
+        <v>0.1501330671425173</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.3316486442110443</v>
+        <v>-0.4205611271258712</v>
       </c>
       <c r="C27">
-        <v>0.2526314761230866</v>
+        <v>0.3441853817158035</v>
       </c>
       <c r="D27">
-        <v>-0.2764127004480684</v>
+        <v>-0.4859202664375734</v>
       </c>
       <c r="E27">
-        <v>-0.4623692863692873</v>
+        <v>-0.5131259608422328</v>
       </c>
       <c r="F27">
-        <v>-0.5042478683029717</v>
+        <v>-0.6562266926293698</v>
       </c>
       <c r="G27">
-        <v>-0.2563793645475809</v>
+        <v>-0.2732799419972362</v>
       </c>
       <c r="H27">
-        <v>0.0122382437058222</v>
+        <v>0.006247424963755772</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.6831699508182573</v>
+        <v>-0.3616338638195402</v>
       </c>
       <c r="C28">
-        <v>0.3678097362095219</v>
+        <v>0.3009716965787569</v>
       </c>
       <c r="D28">
-        <v>-0.255749945430469</v>
+        <v>-0.4312492678305929</v>
       </c>
       <c r="E28">
-        <v>-0.6116387733250375</v>
+        <v>-0.4835450198219759</v>
       </c>
       <c r="F28">
-        <v>-0.924602113254698</v>
+        <v>-0.5204996660826324</v>
       </c>
       <c r="G28">
-        <v>-0.5283330652925698</v>
+        <v>-0.4000605342261865</v>
       </c>
       <c r="H28">
-        <v>-0.1938944426098421</v>
+        <v>0.1331044424674086</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.3303339960514499</v>
+        <v>-0.003517194148075465</v>
       </c>
       <c r="C29">
-        <v>0.2468200478230522</v>
+        <v>0.001803219339556472</v>
       </c>
       <c r="D29">
-        <v>-0.5944695173817481</v>
+        <v>-0.003162441010060356</v>
       </c>
       <c r="E29">
-        <v>-0.4016285067396461</v>
+        <v>-0.004454419909009947</v>
       </c>
       <c r="F29">
-        <v>-0.5535121912750361</v>
+        <v>-0.002945692533082674</v>
       </c>
       <c r="G29">
-        <v>-0.1587439797186001</v>
+        <v>-0.004516662692725664</v>
       </c>
       <c r="H29">
-        <v>-0.08164257753883071</v>
+        <v>-0.002834330857200771</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.003557929738449668</v>
+        <v>-0.03156608267805908</v>
       </c>
       <c r="C30">
-        <v>0.001102257934096035</v>
+        <v>0.01497604329722402</v>
       </c>
       <c r="D30">
-        <v>-0.00217718956690225</v>
+        <v>-0.02400552673644877</v>
       </c>
       <c r="E30">
-        <v>-0.004207910830705913</v>
+        <v>-0.04062787890958521</v>
       </c>
       <c r="F30">
-        <v>-0.004473328632667814</v>
+        <v>-0.04040641911350295</v>
       </c>
       <c r="G30">
-        <v>-0.003689400164003663</v>
+        <v>-0.03608764947419321</v>
       </c>
       <c r="H30">
-        <v>-0.002857321638139297</v>
+        <v>-0.02102956624510648</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.03306012971072296</v>
+        <v>-0.4376418495994888</v>
       </c>
       <c r="C31">
-        <v>0.0119301144925039</v>
+        <v>0.2808730831226267</v>
       </c>
       <c r="D31">
-        <v>-0.03375468300581598</v>
+        <v>-0.5368113268161542</v>
       </c>
       <c r="E31">
-        <v>-0.03743217011484779</v>
+        <v>-0.5126797460630835</v>
       </c>
       <c r="F31">
-        <v>-0.03946735574739376</v>
+        <v>-0.5167690816862368</v>
       </c>
       <c r="G31">
-        <v>-0.03524107448950542</v>
+        <v>-0.5283317768103435</v>
       </c>
       <c r="H31">
-        <v>-0.01140216798858019</v>
+        <v>0.03519322313780836</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.3809972305836113</v>
+        <v>-0.5759315289324697</v>
       </c>
       <c r="C32">
-        <v>0.2945973004617911</v>
+        <v>0.2317930508004489</v>
       </c>
       <c r="D32">
-        <v>-0.4096662221663293</v>
+        <v>-0.7773228250321319</v>
       </c>
       <c r="E32">
-        <v>-0.3674439530816556</v>
+        <v>-0.7769148958428977</v>
       </c>
       <c r="F32">
-        <v>-0.5435430626808965</v>
+        <v>-0.8233573980566742</v>
       </c>
       <c r="G32">
-        <v>-0.2894464597929473</v>
+        <v>-0.2624954139117364</v>
       </c>
       <c r="H32">
-        <v>-0.06638163164148181</v>
+        <v>0.04540971737752035</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.7427024369144383</v>
+        <v>-0.003572185406035379</v>
       </c>
       <c r="C33">
-        <v>0.4199705846357635</v>
+        <v>0.001914900666307565</v>
       </c>
       <c r="D33">
-        <v>-0.5880197515154155</v>
+        <v>-0.001810936928154865</v>
       </c>
       <c r="E33">
-        <v>-0.9721742377546964</v>
+        <v>-0.005284998463816023</v>
       </c>
       <c r="F33">
-        <v>-0.8459929839631001</v>
+        <v>-0.004045864189325581</v>
       </c>
       <c r="G33">
-        <v>-0.1942589657076959</v>
+        <v>-0.003975054763928849</v>
       </c>
       <c r="H33">
-        <v>-0.1858261521202538</v>
+        <v>-0.002160124645332013</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.387795338163506</v>
+        <v>-0.2929863303484244</v>
       </c>
       <c r="C34">
-        <v>0.1250535189053081</v>
+        <v>0.3276716819829885</v>
       </c>
       <c r="D34">
-        <v>-0.4475193476380724</v>
+        <v>-0.3412761097993124</v>
       </c>
       <c r="E34">
-        <v>-0.3677036928550431</v>
+        <v>-0.4102165712679727</v>
       </c>
       <c r="F34">
-        <v>-0.6143562565553261</v>
+        <v>-0.2939997580596504</v>
       </c>
       <c r="G34">
-        <v>-0.5137292155715445</v>
+        <v>-0.3415690271813255</v>
       </c>
       <c r="H34">
-        <v>0.1459185268814306</v>
+        <v>-0.0162079605848297</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.6500877927160984</v>
+        <v>-0.004385536096368296</v>
       </c>
       <c r="C35">
-        <v>0.5787072487969793</v>
+        <v>0.0009709433677983666</v>
       </c>
       <c r="D35">
-        <v>-0.5504908402683089</v>
+        <v>-0.002661120077071968</v>
       </c>
       <c r="E35">
-        <v>-0.4920162919840939</v>
+        <v>-0.005423095015855187</v>
       </c>
       <c r="F35">
-        <v>-0.9506862758071019</v>
+        <v>-0.003754178963884698</v>
       </c>
       <c r="G35">
-        <v>-0.5480195053751173</v>
+        <v>-0.005054809951507967</v>
       </c>
       <c r="H35">
-        <v>0.01989652423846607</v>
+        <v>-0.003278677620165776</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.003060334833068095</v>
+        <v>-0.4043801355412229</v>
       </c>
       <c r="C36">
-        <v>0.0007448789374730304</v>
+        <v>0.1540258848128505</v>
       </c>
       <c r="D36">
-        <v>-0.002215784050609319</v>
+        <v>-0.2442700335640275</v>
       </c>
       <c r="E36">
-        <v>-0.004482824598665671</v>
+        <v>-0.5694089122441689</v>
       </c>
       <c r="F36">
-        <v>-0.003518716977541608</v>
+        <v>-0.5105063134923552</v>
       </c>
       <c r="G36">
-        <v>-0.003910876357321841</v>
+        <v>-0.4987108686841251</v>
       </c>
       <c r="H36">
-        <v>-0.001751079322851827</v>
+        <v>0.083336681745755</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.8648345554976477</v>
+        <v>-0.00350768695184557</v>
       </c>
       <c r="C37">
-        <v>0.5212112811774867</v>
+        <v>0.003060005674536064</v>
       </c>
       <c r="D37">
-        <v>-0.783626727920834</v>
+        <v>-0.002151815086755228</v>
       </c>
       <c r="E37">
-        <v>-0.7535624584342635</v>
+        <v>-0.005241264492437424</v>
       </c>
       <c r="F37">
-        <v>-0.990545221876771</v>
+        <v>-0.002747274774687176</v>
       </c>
       <c r="G37">
-        <v>-0.6989395138724784</v>
+        <v>-0.004207978988195749</v>
       </c>
       <c r="H37">
-        <v>0.1412269912696006</v>
+        <v>-0.001916355047392687</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.3954987102956236</v>
+        <v>-0.3471869104062866</v>
       </c>
       <c r="C38">
-        <v>0.300095475604151</v>
+        <v>0.3452894374602763</v>
       </c>
       <c r="D38">
-        <v>-0.3101669867986539</v>
+        <v>-0.3197283981325486</v>
       </c>
       <c r="E38">
-        <v>-0.4241782332483437</v>
+        <v>-0.3815550054781969</v>
       </c>
       <c r="F38">
-        <v>-0.4989155252386113</v>
+        <v>-0.4952270568585504</v>
       </c>
       <c r="G38">
-        <v>-0.3049397314989839</v>
+        <v>-0.2952896738102892</v>
       </c>
       <c r="H38">
-        <v>-0.1471438444674218</v>
+        <v>-0.2280505113130108</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.1959984139617661</v>
+        <v>-0.02866486936904064</v>
       </c>
       <c r="C39">
-        <v>0.1438481778808632</v>
+        <v>0.01822984354362947</v>
       </c>
       <c r="D39">
-        <v>-0.1378422683599954</v>
+        <v>-0.03040930784053748</v>
       </c>
       <c r="E39">
-        <v>-0.2641055271952111</v>
+        <v>-0.03954401327219106</v>
       </c>
       <c r="F39">
-        <v>-0.2160174334978954</v>
+        <v>-0.0375330488522212</v>
       </c>
       <c r="G39">
-        <v>-0.1713064347455896</v>
+        <v>-0.0300940684007939</v>
       </c>
       <c r="H39">
-        <v>-0.06002958416974659</v>
+        <v>-0.01275471345328491</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.1788141487753573</v>
+        <v>-0.003191114843247292</v>
       </c>
       <c r="C40">
-        <v>0.05037519745500328</v>
+        <v>0.001900943828443335</v>
       </c>
       <c r="D40">
-        <v>-0.1717067710818647</v>
+        <v>-0.002496963146091754</v>
       </c>
       <c r="E40">
-        <v>-0.2085687631444415</v>
+        <v>-0.004428350556002984</v>
       </c>
       <c r="F40">
-        <v>-0.2500323246272132</v>
+        <v>-0.003685618118858182</v>
       </c>
       <c r="G40">
-        <v>-0.1607667859067952</v>
+        <v>-0.003814441687194633</v>
       </c>
       <c r="H40">
-        <v>-0.1026210451039269</v>
+        <v>-0.002488896865975993</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.6749025019726215</v>
+        <v>-0.3389934297504786</v>
       </c>
       <c r="C41">
-        <v>0.3050667739499633</v>
+        <v>0.3196372238638677</v>
       </c>
       <c r="D41">
-        <v>-0.7081586096718374</v>
+        <v>-0.3302138303063464</v>
       </c>
       <c r="E41">
-        <v>-0.5448642479051714</v>
+        <v>-0.3952624413209483</v>
       </c>
       <c r="F41">
-        <v>-1.001741966993814</v>
+        <v>-0.4758515228635246</v>
       </c>
       <c r="G41">
-        <v>-0.6629457300576326</v>
+        <v>-0.3555773963401621</v>
       </c>
       <c r="H41">
-        <v>0.3792284514436206</v>
+        <v>-0.01423630702314695</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.5606426442454753</v>
+        <v>-0.004199950915767128</v>
       </c>
       <c r="C42">
-        <v>0.7371078741416885</v>
+        <v>0.002765433049198476</v>
       </c>
       <c r="D42">
-        <v>-0.5065621092695153</v>
+        <v>-0.001678326467299956</v>
       </c>
       <c r="E42">
-        <v>-0.2155915396037694</v>
+        <v>-0.00516898019026494</v>
       </c>
       <c r="F42">
-        <v>-0.7999244638341828</v>
+        <v>-0.003843577554796003</v>
       </c>
       <c r="G42">
-        <v>-0.6712056836668557</v>
+        <v>-0.005119295280971073</v>
       </c>
       <c r="H42">
-        <v>-0.1414412965983089</v>
+        <v>-0.002466833235842886</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.003935641611588752</v>
+        <v>-0.1834139770568424</v>
       </c>
       <c r="C43">
-        <v>0.001460309055512886</v>
+        <v>0.08452742268055011</v>
       </c>
       <c r="D43">
-        <v>-0.001765696988974142</v>
+        <v>-0.1354245215041594</v>
       </c>
       <c r="E43">
-        <v>-0.004147167582573907</v>
+        <v>-0.2016951112326132</v>
       </c>
       <c r="F43">
-        <v>-0.004979463924237771</v>
+        <v>-0.230274573176639</v>
       </c>
       <c r="G43">
-        <v>-0.00430163564742655</v>
+        <v>-0.253587141334239</v>
       </c>
       <c r="H43">
-        <v>-0.002585527366954986</v>
+        <v>-0.05681094741574631</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.5074395007060856</v>
+        <v>-0.003966512518557285</v>
       </c>
       <c r="C44">
-        <v>0.07228180076846005</v>
+        <v>0.002847950714988688</v>
       </c>
       <c r="D44">
-        <v>-0.4306885762785562</v>
+        <v>-0.002753572235276485</v>
       </c>
       <c r="E44">
-        <v>-0.6743000474679636</v>
+        <v>-0.004893098548974267</v>
       </c>
       <c r="F44">
-        <v>-0.5704239499436956</v>
+        <v>-0.003611893237383415</v>
       </c>
       <c r="G44">
-        <v>-0.4408539796344664</v>
+        <v>-0.004776050728490622</v>
       </c>
       <c r="H44">
-        <v>-0.0193023082106465</v>
+        <v>-0.002035244213218268</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.003775858591863546</v>
+        <v>-0.497245251409824</v>
       </c>
       <c r="C45">
-        <v>0.001831011310531273</v>
+        <v>0.302693076889135</v>
       </c>
       <c r="D45">
-        <v>-0.002591464249199558</v>
+        <v>-0.4535533689483244</v>
       </c>
       <c r="E45">
-        <v>-0.004838838937824856</v>
+        <v>-0.4314634357594216</v>
       </c>
       <c r="F45">
-        <v>-0.003101889329770156</v>
+        <v>-0.6378055705127764</v>
       </c>
       <c r="G45">
-        <v>-0.004473287931628505</v>
+        <v>-0.596793795362367</v>
       </c>
       <c r="H45">
-        <v>-0.002519819302626631</v>
+        <v>-0.2233691482845511</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.002570495379620539</v>
+        <v>-0.002862194772793902</v>
       </c>
       <c r="C46">
-        <v>0.001536513519726828</v>
+        <v>0.00228302401542046</v>
       </c>
       <c r="D46">
-        <v>-0.002415707039656615</v>
+        <v>-0.002423483541682406</v>
       </c>
       <c r="E46">
-        <v>-0.003101414684212968</v>
+        <v>-0.00384642394125166</v>
       </c>
       <c r="F46">
-        <v>-0.003974964498740358</v>
+        <v>-0.003095537656638411</v>
       </c>
       <c r="G46">
-        <v>-0.003187897909593327</v>
+        <v>-0.004114327755535926</v>
       </c>
       <c r="H46">
-        <v>-0.00188998855119752</v>
+        <v>-0.002233395168843205</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.00310894771217188</v>
+        <v>-0.00339678347288408</v>
       </c>
       <c r="C47">
-        <v>0.001003950577103254</v>
+        <v>0.001601950481112174</v>
       </c>
       <c r="D47">
-        <v>-0.003046517054386019</v>
+        <v>-0.002500817329260319</v>
       </c>
       <c r="E47">
-        <v>-0.004106984494304963</v>
+        <v>-0.005430414328216054</v>
       </c>
       <c r="F47">
-        <v>-0.004480193431822639</v>
+        <v>-0.003751016762705784</v>
       </c>
       <c r="G47">
-        <v>-0.002980174498241194</v>
+        <v>-0.003652891629895042</v>
       </c>
       <c r="H47">
-        <v>-0.00109196933263884</v>
+        <v>-0.001570440444092054</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.4011819685370089</v>
+        <v>-0.03900958126611251</v>
       </c>
       <c r="C48">
-        <v>0.1772385708502373</v>
+        <v>0.008989806151929866</v>
       </c>
       <c r="D48">
-        <v>-0.3644274351198657</v>
+        <v>-0.02887009980973673</v>
       </c>
       <c r="E48">
-        <v>-0.4681829919831761</v>
+        <v>-0.04441118549308831</v>
       </c>
       <c r="F48">
-        <v>-0.5469337873080545</v>
+        <v>-0.04407603571685811</v>
       </c>
       <c r="G48">
-        <v>-0.3448581879461262</v>
+        <v>-0.04142243573764395</v>
       </c>
       <c r="H48">
-        <v>-0.04935526860836096</v>
+        <v>-0.02427569370914922</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.5211805081339204</v>
+        <v>-0.02988065995418091</v>
       </c>
       <c r="C49">
-        <v>0.2731389360812295</v>
+        <v>0.01582679476724133</v>
       </c>
       <c r="D49">
-        <v>-0.440561481160263</v>
+        <v>-0.02136504654506418</v>
       </c>
       <c r="E49">
-        <v>-0.5485712866155216</v>
+        <v>-0.04180646317150671</v>
       </c>
       <c r="F49">
-        <v>-0.59605143477199</v>
+        <v>-0.03698510324871401</v>
       </c>
       <c r="G49">
-        <v>-0.4534279492350537</v>
+        <v>-0.03288161691526034</v>
       </c>
       <c r="H49">
-        <v>-0.0580585204183002</v>
+        <v>-0.02369389123921599</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.002545062729988104</v>
+        <v>-0.003916264990707624</v>
       </c>
       <c r="C50">
-        <v>0.001629105966437419</v>
+        <v>0.002938151108207623</v>
       </c>
       <c r="D50">
-        <v>-0.002017255233894245</v>
+        <v>-0.001650543608616284</v>
       </c>
       <c r="E50">
-        <v>-0.003513072201245598</v>
+        <v>-0.004767070481633856</v>
       </c>
       <c r="F50">
-        <v>-0.00397179613428891</v>
+        <v>-0.003466001407442573</v>
       </c>
       <c r="G50">
-        <v>-0.00295901210350494</v>
+        <v>-0.004911293438874771</v>
       </c>
       <c r="H50">
-        <v>-0.001824216083721733</v>
+        <v>-0.002893410083238742</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.5878989203034316</v>
+        <v>-0.3111958267680223</v>
       </c>
       <c r="C51">
-        <v>0.689099039861109</v>
+        <v>0.2651266438962201</v>
       </c>
       <c r="D51">
-        <v>-0.7198470865254748</v>
+        <v>-0.2789522410872753</v>
       </c>
       <c r="E51">
-        <v>-0.3119489950714617</v>
+        <v>-0.2609938999064655</v>
       </c>
       <c r="F51">
-        <v>-0.9414894067575775</v>
+        <v>-0.4113805711328388</v>
       </c>
       <c r="G51">
-        <v>-0.3912546299018089</v>
+        <v>-0.4642081346030711</v>
       </c>
       <c r="H51">
-        <v>-0.1431541556167101</v>
+        <v>-0.1055623227024625</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.4389955469596126</v>
+        <v>-0.3192001824273186</v>
       </c>
       <c r="C52">
-        <v>0.1934617107085179</v>
+        <v>0.2554282168128087</v>
       </c>
       <c r="D52">
-        <v>-0.2755629632404392</v>
+        <v>-0.2656646402542844</v>
       </c>
       <c r="E52">
-        <v>-0.4063301539342211</v>
+        <v>-0.3995118487835577</v>
       </c>
       <c r="F52">
-        <v>-0.5745498520126859</v>
+        <v>-0.3712458198664044</v>
       </c>
       <c r="G52">
-        <v>-0.446052089623096</v>
+        <v>-0.390914108696346</v>
       </c>
       <c r="H52">
-        <v>-0.07827096264588582</v>
+        <v>-0.06906495513876416</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.3801526385562015</v>
+        <v>-0.5658587785725335</v>
       </c>
       <c r="C53">
-        <v>0.3083932200973047</v>
+        <v>0.4227880378220601</v>
       </c>
       <c r="D53">
-        <v>-0.3482453802125908</v>
+        <v>-0.5608803216994781</v>
       </c>
       <c r="E53">
-        <v>-0.4565137438751233</v>
+        <v>-0.5523101075452961</v>
       </c>
       <c r="F53">
-        <v>-0.5320224875479176</v>
+        <v>-0.8150083629348502</v>
       </c>
       <c r="G53">
-        <v>-0.2527542232736011</v>
+        <v>-0.4921511590019216</v>
       </c>
       <c r="H53">
-        <v>-0.03881185979948334</v>
+        <v>0.1423976544358844</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.003560886816320538</v>
+        <v>-0.01904583469058412</v>
       </c>
       <c r="C54">
-        <v>0.002189856984370584</v>
+        <v>0.01135205903298803</v>
       </c>
       <c r="D54">
-        <v>-0.002176508906252063</v>
+        <v>-0.02682662548913177</v>
       </c>
       <c r="E54">
-        <v>-0.00475060841965671</v>
+        <v>-0.03442999219413656</v>
       </c>
       <c r="F54">
-        <v>-0.003928517261794187</v>
+        <v>-0.02137267382500941</v>
       </c>
       <c r="G54">
-        <v>-0.003660740640671676</v>
+        <v>-0.02722558789151103</v>
       </c>
       <c r="H54">
-        <v>-0.002146916388961535</v>
+        <v>-0.01701346152424163</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.1769765971255977</v>
+        <v>-0.4014791088786956</v>
       </c>
       <c r="C55">
-        <v>0.1071698135879978</v>
+        <v>0.3172069737637172</v>
       </c>
       <c r="D55">
-        <v>-0.1108557556007506</v>
+        <v>-0.5813137341857219</v>
       </c>
       <c r="E55">
-        <v>-0.1923909277332653</v>
+        <v>-0.3220517732798635</v>
       </c>
       <c r="F55">
-        <v>-0.2831402476015512</v>
+        <v>-0.6053220701520734</v>
       </c>
       <c r="G55">
-        <v>-0.1765497932018466</v>
+        <v>-0.3972987440527216</v>
       </c>
       <c r="H55">
-        <v>-0.0387581783951967</v>
+        <v>0.07216250093051994</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.002897658153299763</v>
+        <v>-0.003127016297246168</v>
       </c>
       <c r="C56">
-        <v>0.001266517212810564</v>
+        <v>0.001949954484382931</v>
       </c>
       <c r="D56">
-        <v>-0.002025042026363276</v>
+        <v>-0.002138555463753104</v>
       </c>
       <c r="E56">
-        <v>-0.004511126018128224</v>
+        <v>-0.004788336190427314</v>
       </c>
       <c r="F56">
-        <v>-0.004025619106452551</v>
+        <v>-0.003560450227444727</v>
       </c>
       <c r="G56">
-        <v>-0.002734708324146749</v>
+        <v>-0.003945474074329138</v>
       </c>
       <c r="H56">
-        <v>-0.001914655255912071</v>
+        <v>-0.001801348114750288</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.3368916252307418</v>
+        <v>-0.6107215671854404</v>
       </c>
       <c r="C57">
-        <v>0.1780613608515826</v>
+        <v>0.4412878836248247</v>
       </c>
       <c r="D57">
-        <v>-0.3632862370818341</v>
+        <v>-0.523419776767183</v>
       </c>
       <c r="E57">
-        <v>-0.3839769718777227</v>
+        <v>-0.4977513984232196</v>
       </c>
       <c r="F57">
-        <v>-0.44438702569426</v>
+        <v>-0.5394824645268883</v>
       </c>
       <c r="G57">
-        <v>-0.2643225516441897</v>
+        <v>-0.8726985688465247</v>
       </c>
       <c r="H57">
-        <v>-0.1814965497317363</v>
+        <v>0.1772286691754971</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.002732642417254483</v>
+        <v>-0.002937571110511115</v>
       </c>
       <c r="C58">
-        <v>0.001735193693340311</v>
+        <v>0.001336616556051301</v>
       </c>
       <c r="D58">
-        <v>-0.001476952175205008</v>
+        <v>-0.002746484839573379</v>
       </c>
       <c r="E58">
-        <v>-0.003926485872338077</v>
+        <v>-0.003354636095287927</v>
       </c>
       <c r="F58">
-        <v>-0.003757145157769046</v>
+        <v>-0.004072110225815685</v>
       </c>
       <c r="G58">
-        <v>-0.003278362026330149</v>
+        <v>-0.00392128289951821</v>
       </c>
       <c r="H58">
-        <v>-0.002212941382044642</v>
+        <v>-0.002520879276924368</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.1815038505348887</v>
+        <v>-0.02962346827937095</v>
       </c>
       <c r="C59">
-        <v>0.1419359554622759</v>
+        <v>0.02002207601586155</v>
       </c>
       <c r="D59">
-        <v>-0.1209849407630955</v>
+        <v>-0.02038056313771511</v>
       </c>
       <c r="E59">
-        <v>-0.2337629721853316</v>
+        <v>-0.04337731062462422</v>
       </c>
       <c r="F59">
-        <v>-0.2243537479854621</v>
+        <v>-0.03738186544696772</v>
       </c>
       <c r="G59">
-        <v>-0.1992698455915923</v>
+        <v>-0.0334166659747956</v>
       </c>
       <c r="H59">
-        <v>-0.06393218684859242</v>
+        <v>-0.01545935943967385</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.6444026470258385</v>
+        <v>-0.003869053243791476</v>
       </c>
       <c r="C60">
-        <v>0.5333713607588272</v>
+        <v>0.00201433685859663</v>
       </c>
       <c r="D60">
-        <v>-0.9742794322144868</v>
+        <v>-0.003186853714101944</v>
       </c>
       <c r="E60">
-        <v>-0.649222125101985</v>
+        <v>-0.004988895050510145</v>
       </c>
       <c r="F60">
-        <v>-0.794005111566229</v>
+        <v>-0.00401566511660249</v>
       </c>
       <c r="G60">
-        <v>-0.2425532102634179</v>
+        <v>-0.004178969390682704</v>
       </c>
       <c r="H60">
-        <v>0.0471590655066728</v>
+        <v>-0.002230210104696147</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.215393894916749</v>
+        <v>-0.0371573260681281</v>
       </c>
       <c r="C61">
-        <v>0.06806619791062124</v>
+        <v>0.01369053306252694</v>
       </c>
       <c r="D61">
-        <v>-0.154529377589619</v>
+        <v>-0.02649853408235016</v>
       </c>
       <c r="E61">
-        <v>-0.2567878965070493</v>
+        <v>-0.04815883405602626</v>
       </c>
       <c r="F61">
-        <v>-0.2108262775063233</v>
+        <v>-0.03244319820923929</v>
       </c>
       <c r="G61">
-        <v>-0.2249854714764952</v>
+        <v>-0.04441657188918377</v>
       </c>
       <c r="H61">
-        <v>-0.1032551992548043</v>
+        <v>-0.02348008270046716</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.4721215915255331</v>
+        <v>-0.003114682404624062</v>
       </c>
       <c r="C62">
-        <v>0.2513622459435593</v>
+        <v>0.001987297197309968</v>
       </c>
       <c r="D62">
-        <v>-0.3741082900297494</v>
+        <v>-0.002938396786865615</v>
       </c>
       <c r="E62">
-        <v>-0.4523563532015077</v>
+        <v>-0.004615028622502594</v>
       </c>
       <c r="F62">
-        <v>-0.7331442479324655</v>
+        <v>-0.00239128626218041</v>
       </c>
       <c r="G62">
-        <v>-0.4157291310974152</v>
+        <v>-0.003904049246300773</v>
       </c>
       <c r="H62">
-        <v>-0.08680414940759459</v>
+        <v>-0.002767579508453584</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.8045414440143297</v>
+        <v>-0.4272930172237601</v>
       </c>
       <c r="C63">
-        <v>0.6542038158098191</v>
+        <v>0.4955420652567961</v>
       </c>
       <c r="D63">
-        <v>-0.784320889084871</v>
+        <v>-0.5527086336957454</v>
       </c>
       <c r="E63">
-        <v>-0.3453683446725397</v>
+        <v>-0.3427761120362067</v>
       </c>
       <c r="F63">
-        <v>-0.9226168865057812</v>
+        <v>-0.658446372931869</v>
       </c>
       <c r="G63">
-        <v>-0.8427830864162007</v>
+        <v>-0.5326919543458565</v>
       </c>
       <c r="H63">
-        <v>0.07677455063217326</v>
+        <v>0.08631670622215709</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.003052396251320343</v>
+        <v>-0.3509669360558967</v>
       </c>
       <c r="C64">
-        <v>0.001229160830559683</v>
+        <v>0.1547879676697421</v>
       </c>
       <c r="D64">
-        <v>-0.002332628947893275</v>
+        <v>-0.3688298529049671</v>
       </c>
       <c r="E64">
-        <v>-0.003975482301187001</v>
+        <v>-0.4104190079010839</v>
       </c>
       <c r="F64">
-        <v>-0.003572481119227964</v>
+        <v>-0.4820883632976906</v>
       </c>
       <c r="G64">
-        <v>-0.003657524478237271</v>
+        <v>-0.3298002644214194</v>
       </c>
       <c r="H64">
-        <v>-0.002695199088158867</v>
+        <v>-0.1296241050248738</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.003293638802044623</v>
+        <v>-0.003099118992946842</v>
       </c>
       <c r="C65">
-        <v>0.002014379709770364</v>
+        <v>0.002014647630755305</v>
       </c>
       <c r="D65">
-        <v>-0.00225780522450235</v>
+        <v>-0.003109619281797163</v>
       </c>
       <c r="E65">
-        <v>-0.003358906974918575</v>
+        <v>-0.004558659014646973</v>
       </c>
       <c r="F65">
-        <v>-0.003779787576388177</v>
+        <v>-0.003349002966978145</v>
       </c>
       <c r="G65">
-        <v>-0.004142757865953811</v>
+        <v>-0.003750891493011968</v>
       </c>
       <c r="H65">
-        <v>-0.002955314861058949</v>
+        <v>-0.001560569503576363</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.1687729491682008</v>
+        <v>-0.6583691316307521</v>
       </c>
       <c r="C66">
-        <v>0.09341514353972591</v>
+        <v>0.1851762173799316</v>
       </c>
       <c r="D66">
-        <v>-0.1150778857816261</v>
+        <v>-0.4158144700397963</v>
       </c>
       <c r="E66">
-        <v>-0.2104955187521141</v>
+        <v>-0.5961552308360915</v>
       </c>
       <c r="F66">
-        <v>-0.2384983979094272</v>
+        <v>-0.8233959326645497</v>
       </c>
       <c r="G66">
-        <v>-0.1737039795720599</v>
+        <v>-0.7843645418703732</v>
       </c>
       <c r="H66">
-        <v>-0.1149667785590612</v>
+        <v>0.1634436786282339</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.5554520630480804</v>
+        <v>-0.1695304138801643</v>
       </c>
       <c r="C67">
-        <v>0.1821014380906471</v>
+        <v>0.1435638452221611</v>
       </c>
       <c r="D67">
-        <v>-0.5168165052798188</v>
+        <v>-0.09465208009015748</v>
       </c>
       <c r="E67">
-        <v>-0.7295717541787128</v>
+        <v>-0.2433147045509529</v>
       </c>
       <c r="F67">
-        <v>-0.6883691814335103</v>
+        <v>-0.2087111255357589</v>
       </c>
       <c r="G67">
-        <v>-0.4551417331808849</v>
+        <v>-0.2197138714003482</v>
       </c>
       <c r="H67">
-        <v>0.2008067942687806</v>
+        <v>-0.02126403871045314</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.3725090084186931</v>
+        <v>-0.1932237000387337</v>
       </c>
       <c r="C68">
-        <v>0.202814423221134</v>
+        <v>0.08345875000632157</v>
       </c>
       <c r="D68">
-        <v>-0.4763626615260532</v>
+        <v>-0.1482320221173656</v>
       </c>
       <c r="E68">
-        <v>-0.4544685747501769</v>
+        <v>-0.2239798460631441</v>
       </c>
       <c r="F68">
-        <v>-0.6285983196856877</v>
+        <v>-0.2139116313255214</v>
       </c>
       <c r="G68">
-        <v>-0.3304877656919314</v>
+        <v>-0.2197342809980848</v>
       </c>
       <c r="H68">
-        <v>0.01850566415248663</v>
+        <v>-0.1355443722594671</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.003754313158572507</v>
+        <v>-0.0326303111294198</v>
       </c>
       <c r="C69">
-        <v>0.001807261025196835</v>
+        <v>0.01115636032664065</v>
       </c>
       <c r="D69">
-        <v>-0.002238524877364566</v>
+        <v>-0.02355843547067367</v>
       </c>
       <c r="E69">
-        <v>-0.005563772057914844</v>
+        <v>-0.0437397255048439</v>
       </c>
       <c r="F69">
-        <v>-0.003483767569892497</v>
+        <v>-0.02935675232906632</v>
       </c>
       <c r="G69">
-        <v>-0.003847442006148316</v>
+        <v>-0.04129632219368976</v>
       </c>
       <c r="H69">
-        <v>-0.001712252443190035</v>
+        <v>-0.02777100464169752</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.003284938257237701</v>
+        <v>-0.003278103138642374</v>
       </c>
       <c r="C70">
-        <v>0.001970857699748545</v>
+        <v>0.00124495025695883</v>
       </c>
       <c r="D70">
-        <v>-0.00256165306887217</v>
+        <v>-0.003266035344804952</v>
       </c>
       <c r="E70">
-        <v>-0.0043685514874161</v>
+        <v>-0.004483776284105329</v>
       </c>
       <c r="F70">
-        <v>-0.003682138419111858</v>
+        <v>-0.002744925747226479</v>
       </c>
       <c r="G70">
-        <v>-0.003789415000897506</v>
+        <v>-0.004240135228169636</v>
       </c>
       <c r="H70">
-        <v>-0.001747163169042447</v>
+        <v>-0.002811830432281754</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.004436615874882139</v>
+        <v>-0.1620954567272547</v>
       </c>
       <c r="C71">
-        <v>0.002019158412656789</v>
+        <v>0.1215249492713663</v>
       </c>
       <c r="D71">
-        <v>-0.00227684385954212</v>
+        <v>-0.2042262773255054</v>
       </c>
       <c r="E71">
-        <v>-0.005004585613166425</v>
+        <v>-0.2285916600309314</v>
       </c>
       <c r="F71">
-        <v>-0.004099483614197853</v>
+        <v>-0.1857900534434146</v>
       </c>
       <c r="G71">
-        <v>-0.004269311363920181</v>
+        <v>-0.1674014636745889</v>
       </c>
       <c r="H71">
-        <v>-0.003509620193084974</v>
+        <v>-0.06833106268846029</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.5232685454010336</v>
+        <v>-0.02566275580444746</v>
       </c>
       <c r="C72">
-        <v>0.5248252444932185</v>
+        <v>0.01831223526088632</v>
       </c>
       <c r="D72">
-        <v>-0.5898738762227719</v>
+        <v>-0.01720827142116238</v>
       </c>
       <c r="E72">
-        <v>-0.392620378772281</v>
+        <v>-0.03838818953415826</v>
       </c>
       <c r="F72">
-        <v>-0.7791896568233406</v>
+        <v>-0.03306062906280936</v>
       </c>
       <c r="G72">
-        <v>-0.5605213295098126</v>
+        <v>-0.03430669894046499</v>
       </c>
       <c r="H72">
-        <v>-0.01771520685454183</v>
+        <v>-0.01853529808554762</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.338763079928157</v>
+        <v>-0.1792547458745866</v>
       </c>
       <c r="C73">
-        <v>0.2359735333260835</v>
+        <v>0.1505812822816756</v>
       </c>
       <c r="D73">
-        <v>-0.2845423446574086</v>
+        <v>-0.09470529368005469</v>
       </c>
       <c r="E73">
-        <v>-0.3028854859840652</v>
+        <v>-0.2494245893533948</v>
       </c>
       <c r="F73">
-        <v>-0.5706409349437322</v>
+        <v>-0.250351450706578</v>
       </c>
       <c r="G73">
-        <v>-0.3430901243971431</v>
+        <v>-0.1930432459993207</v>
       </c>
       <c r="H73">
-        <v>-0.1422985339505727</v>
+        <v>-0.03343051550518417</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.4810271126857257</v>
+        <v>-0.4928899197021174</v>
       </c>
       <c r="C74">
-        <v>0.3650164010285577</v>
+        <v>0.5532946905587586</v>
       </c>
       <c r="D74">
-        <v>-0.4154480194591685</v>
+        <v>-0.6026122393174084</v>
       </c>
       <c r="E74">
-        <v>-0.472612883715832</v>
+        <v>-0.332253796125503</v>
       </c>
       <c r="F74">
-        <v>-0.6494649859896654</v>
+        <v>-0.7736979723952127</v>
       </c>
       <c r="G74">
-        <v>-0.483642987900663</v>
+        <v>-0.5185000455360381</v>
       </c>
       <c r="H74">
-        <v>0.09502109218534445</v>
+        <v>0.08034131041688373</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.1820486779834197</v>
+        <v>-0.00369836063776572</v>
       </c>
       <c r="C75">
-        <v>0.1078508688303586</v>
+        <v>0.001819134057246635</v>
       </c>
       <c r="D75">
-        <v>-0.1596943370019342</v>
+        <v>-0.002543783939417585</v>
       </c>
       <c r="E75">
-        <v>-0.155977979163291</v>
+        <v>-0.004326895153924501</v>
       </c>
       <c r="F75">
-        <v>-0.2313701461324302</v>
+        <v>-0.00397089509461534</v>
       </c>
       <c r="G75">
-        <v>-0.242810917524045</v>
+        <v>-0.00507679407777227</v>
       </c>
       <c r="H75">
-        <v>-0.06061713024331187</v>
+        <v>-0.001971213124082571</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.003238873729343097</v>
+        <v>-0.003952417545525212</v>
       </c>
       <c r="C76">
-        <v>0.000616740586151893</v>
+        <v>0.00140866562889208</v>
       </c>
       <c r="D76">
-        <v>-0.002556605929781999</v>
+        <v>-0.001704000726818995</v>
       </c>
       <c r="E76">
-        <v>-0.003813556407950255</v>
+        <v>-0.004551246919121569</v>
       </c>
       <c r="F76">
-        <v>-0.003972779982964566</v>
+        <v>-0.004825462401944773</v>
       </c>
       <c r="G76">
-        <v>-0.003849022076333048</v>
+        <v>-0.004519582933007269</v>
       </c>
       <c r="H76">
-        <v>-0.002748864472676148</v>
+        <v>-0.003161698150505993</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.003628476484227029</v>
+        <v>-0.003449124332248323</v>
       </c>
       <c r="C77">
-        <v>0.001287294279131957</v>
+        <v>0.001179705494840481</v>
       </c>
       <c r="D77">
-        <v>-0.002412877880766322</v>
+        <v>-0.003292651448550846</v>
       </c>
       <c r="E77">
-        <v>-0.004377133865724087</v>
+        <v>-0.004801708055203547</v>
       </c>
       <c r="F77">
-        <v>-0.003933899582724298</v>
+        <v>-0.003538964542625581</v>
       </c>
       <c r="G77">
-        <v>-0.004086196595759927</v>
+        <v>-0.004314039360204356</v>
       </c>
       <c r="H77">
-        <v>-0.002826625550650704</v>
+        <v>-0.001678848049056456</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.2969285151771502</v>
+        <v>-0.3904569592888343</v>
       </c>
       <c r="C78">
-        <v>0.1969537662907291</v>
+        <v>0.3809084974047678</v>
       </c>
       <c r="D78">
-        <v>-0.4354096403116666</v>
+        <v>-0.3740716246743409</v>
       </c>
       <c r="E78">
-        <v>-0.4004138729829937</v>
+        <v>-0.4361948435591281</v>
       </c>
       <c r="F78">
-        <v>-0.4774579661423197</v>
+        <v>-0.4741196343675462</v>
       </c>
       <c r="G78">
-        <v>-0.2040446514575386</v>
+        <v>-0.3323979184809836</v>
       </c>
       <c r="H78">
-        <v>-0.04524625195137245</v>
+        <v>-0.1220985781593336</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.5529447833301681</v>
+        <v>-0.03035720028385896</v>
       </c>
       <c r="C79">
-        <v>0.5334396698368978</v>
+        <v>0.02198789874071753</v>
       </c>
       <c r="D79">
-        <v>-0.6505040870636928</v>
+        <v>-0.02316012185821681</v>
       </c>
       <c r="E79">
-        <v>-0.5033002800844381</v>
+        <v>-0.03696258437172094</v>
       </c>
       <c r="F79">
-        <v>-0.9736364905578615</v>
+        <v>-0.03765731205246005</v>
       </c>
       <c r="G79">
-        <v>-0.392152616695499</v>
+        <v>-0.03665244606613757</v>
       </c>
       <c r="H79">
-        <v>-0.02519701161554137</v>
+        <v>-0.02007159814665868</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.003387807446930136</v>
+        <v>-0.3258755727355139</v>
       </c>
       <c r="C80">
-        <v>0.001705736157373836</v>
+        <v>0.241430982684941</v>
       </c>
       <c r="D80">
-        <v>-0.002515842674410705</v>
+        <v>-0.2889233592251504</v>
       </c>
       <c r="E80">
-        <v>-0.004154758000040727</v>
+        <v>-0.4735301620156888</v>
       </c>
       <c r="F80">
-        <v>-0.004315709160046904</v>
+        <v>-0.4230317114378346</v>
       </c>
       <c r="G80">
-        <v>-0.003490282348889595</v>
+        <v>-0.315555758080174</v>
       </c>
       <c r="H80">
-        <v>-0.002259210674920779</v>
+        <v>-0.05445096857261875</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.1693303967901548</v>
+        <v>-0.1312703611743324</v>
       </c>
       <c r="C81">
-        <v>0.05509520603315221</v>
+        <v>0.07188955451682033</v>
       </c>
       <c r="D81">
-        <v>-0.1649841088566794</v>
+        <v>-0.1242529645719212</v>
       </c>
       <c r="E81">
-        <v>-0.2495643767650222</v>
+        <v>-0.1924676150354346</v>
       </c>
       <c r="F81">
-        <v>-0.1964773435858229</v>
+        <v>-0.2117547926899662</v>
       </c>
       <c r="G81">
-        <v>-0.1812259826899792</v>
+        <v>-0.1919448051899653</v>
       </c>
       <c r="H81">
-        <v>-0.05245635769974506</v>
+        <v>-0.04691168880774577</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.03510239815726178</v>
+        <v>-0.4474127034472558</v>
       </c>
       <c r="C82">
-        <v>0.01522088771810577</v>
+        <v>0.4190941654135164</v>
       </c>
       <c r="D82">
-        <v>-0.02075725686456424</v>
+        <v>-0.5834695731439467</v>
       </c>
       <c r="E82">
-        <v>-0.04072508005621091</v>
+        <v>-0.5802342896414571</v>
       </c>
       <c r="F82">
-        <v>-0.03443860079335502</v>
+        <v>-0.7490529979492395</v>
       </c>
       <c r="G82">
-        <v>-0.04037726725185766</v>
+        <v>-0.3030274012435138</v>
       </c>
       <c r="H82">
-        <v>-0.02793018887218459</v>
+        <v>0.1184411577789129</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.03378311549441091</v>
+        <v>-0.1829191913639654</v>
       </c>
       <c r="C83">
-        <v>0.007787800679707755</v>
+        <v>0.06806226445936006</v>
       </c>
       <c r="D83">
-        <v>-0.02842685718461855</v>
+        <v>-0.1611284090330962</v>
       </c>
       <c r="E83">
-        <v>-0.04131019919137403</v>
+        <v>-0.2553803724136096</v>
       </c>
       <c r="F83">
-        <v>-0.03657995590264957</v>
+        <v>-0.1845435996985788</v>
       </c>
       <c r="G83">
-        <v>-0.03690354796080459</v>
+        <v>-0.2078667123176126</v>
       </c>
       <c r="H83">
-        <v>-0.02091232924631086</v>
+        <v>-0.096210421326683</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.5325492260975518</v>
+        <v>-0.4284759594824077</v>
       </c>
       <c r="C84">
-        <v>0.4734859541709555</v>
+        <v>0.08199143522078689</v>
       </c>
       <c r="D84">
-        <v>-0.5409954827015336</v>
+        <v>-0.3326383455939337</v>
       </c>
       <c r="E84">
-        <v>-0.507901784030418</v>
+        <v>-0.5411505543735878</v>
       </c>
       <c r="F84">
-        <v>-0.7521621708794283</v>
+        <v>-0.621651053309218</v>
       </c>
       <c r="G84">
-        <v>-0.3897920318091141</v>
+        <v>-0.5634609373226448</v>
       </c>
       <c r="H84">
-        <v>-0.30595402441073</v>
+        <v>0.09861357596066563</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.2001301866157374</v>
+        <v>-0.3974381188610123</v>
       </c>
       <c r="C85">
-        <v>0.049280890091949</v>
+        <v>0.3623503637698396</v>
       </c>
       <c r="D85">
-        <v>-0.1562336125547251</v>
+        <v>-0.4826873523636804</v>
       </c>
       <c r="E85">
-        <v>-0.2202740314607309</v>
+        <v>-0.3266346363046412</v>
       </c>
       <c r="F85">
-        <v>-0.2729497784060486</v>
+        <v>-0.6096876108762199</v>
       </c>
       <c r="G85">
-        <v>-0.2024683182197597</v>
+        <v>-0.4694263386971677</v>
       </c>
       <c r="H85">
-        <v>-0.07526284416550631</v>
+        <v>-0.01808224904294242</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.5642999083956172</v>
+        <v>-0.3851039654048409</v>
       </c>
       <c r="C86">
-        <v>0.4055370524066264</v>
+        <v>0.2842885895023486</v>
       </c>
       <c r="D86">
-        <v>-0.6922002950952063</v>
+        <v>-0.2978780081651584</v>
       </c>
       <c r="E86">
-        <v>-0.6267750375749942</v>
+        <v>-0.459350541126006</v>
       </c>
       <c r="F86">
-        <v>-0.742635175415894</v>
+        <v>-0.3251344570542142</v>
       </c>
       <c r="G86">
-        <v>-0.4492126572732134</v>
+        <v>-0.6571441873778023</v>
       </c>
       <c r="H86">
-        <v>0.08567402753302687</v>
+        <v>0.05889594783224061</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.6280187387875242</v>
+        <v>-0.1764084587223224</v>
       </c>
       <c r="C87">
-        <v>0.5467725507072726</v>
+        <v>0.0929162004550263</v>
       </c>
       <c r="D87">
-        <v>-0.7967554864627184</v>
+        <v>-0.1107195523788687</v>
       </c>
       <c r="E87">
-        <v>-0.4483630532629653</v>
+        <v>-0.1760185897172125</v>
       </c>
       <c r="F87">
-        <v>-0.9147073169342713</v>
+        <v>-0.2505576501987709</v>
       </c>
       <c r="G87">
-        <v>-0.4784859837320875</v>
+        <v>-0.2368146163900614</v>
       </c>
       <c r="H87">
-        <v>-0.07316166631176846</v>
+        <v>-0.09090281786429892</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.003173424291556526</v>
+        <v>-0.3128816966228744</v>
       </c>
       <c r="C88">
-        <v>0.002105651946293847</v>
+        <v>0.2305360899906012</v>
       </c>
       <c r="D88">
-        <v>-0.001928983451137428</v>
+        <v>-0.3525704138009584</v>
       </c>
       <c r="E88">
-        <v>-0.003706681488542316</v>
+        <v>-0.3730510411005969</v>
       </c>
       <c r="F88">
-        <v>-0.0036383859815848</v>
+        <v>-0.4660748590787561</v>
       </c>
       <c r="G88">
-        <v>-0.003950829405089819</v>
+        <v>-0.3365033725921428</v>
       </c>
       <c r="H88">
-        <v>-0.002772580268880121</v>
+        <v>-0.02880016810306102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.004018725148860616</v>
+        <v>-0.1944837796543058</v>
       </c>
       <c r="C89">
-        <v>0.000821637134505971</v>
+        <v>0.08651862937619693</v>
       </c>
       <c r="D89">
-        <v>-0.002785415871803891</v>
+        <v>-0.166613095772581</v>
       </c>
       <c r="E89">
-        <v>-0.004758674409730639</v>
+        <v>-0.2386224933375694</v>
       </c>
       <c r="F89">
-        <v>-0.004017497569878798</v>
+        <v>-0.2565041750952712</v>
       </c>
       <c r="G89">
-        <v>-0.004072119745339397</v>
+        <v>-0.1928191598607855</v>
       </c>
       <c r="H89">
-        <v>-0.003187056530966072</v>
+        <v>-0.08322285381618807</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.03468711188336132</v>
+        <v>-0.4217159244670755</v>
       </c>
       <c r="C90">
-        <v>0.009597325561099461</v>
+        <v>0.3757508045235253</v>
       </c>
       <c r="D90">
-        <v>-0.02763651668674953</v>
+        <v>-0.360679136796928</v>
       </c>
       <c r="E90">
-        <v>-0.04423274744981719</v>
+        <v>-0.444976500711367</v>
       </c>
       <c r="F90">
-        <v>-0.03745435379384034</v>
+        <v>-0.5346865500206611</v>
       </c>
       <c r="G90">
-        <v>-0.03402958378859005</v>
+        <v>-0.3344721580001139</v>
       </c>
       <c r="H90">
-        <v>-0.02143706198855361</v>
+        <v>-0.1260454574508606</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.003546654215687859</v>
+        <v>-0.4986698605135602</v>
       </c>
       <c r="C91">
-        <v>0.001962632159402923</v>
+        <v>0.3432927577773729</v>
       </c>
       <c r="D91">
-        <v>-0.002918329517821935</v>
+        <v>-0.3941802206400575</v>
       </c>
       <c r="E91">
-        <v>-0.004460618851384153</v>
+        <v>-0.4435327504822066</v>
       </c>
       <c r="F91">
-        <v>-0.003375040916475955</v>
+        <v>-0.5500971203360652</v>
       </c>
       <c r="G91">
-        <v>-0.004229995115280646</v>
+        <v>-0.6267896997688797</v>
       </c>
       <c r="H91">
-        <v>-0.001939236912927189</v>
+        <v>0.07793772053005496</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.393355394383912</v>
+        <v>-0.1394956375203457</v>
       </c>
       <c r="C92">
-        <v>0.0212137164580871</v>
+        <v>0.07924065119431946</v>
       </c>
       <c r="D92">
-        <v>-0.3825836741771192</v>
+        <v>-0.1580236506255688</v>
       </c>
       <c r="E92">
-        <v>-0.5136621276588883</v>
+        <v>-0.1887076859956097</v>
       </c>
       <c r="F92">
-        <v>-0.5031912238646199</v>
+        <v>-0.1812802561960427</v>
       </c>
       <c r="G92">
-        <v>-0.3727482581614596</v>
+        <v>-0.2019223210082499</v>
       </c>
       <c r="H92">
-        <v>0.05578281799382244</v>
+        <v>-0.06022077315382249</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.1692179975061081</v>
+        <v>-0.6417306115939883</v>
       </c>
       <c r="C93">
-        <v>0.1004329425847376</v>
+        <v>0.4605422590758799</v>
       </c>
       <c r="D93">
-        <v>-0.111355869592258</v>
+        <v>-0.6746327472784914</v>
       </c>
       <c r="E93">
-        <v>-0.2369410276693627</v>
+        <v>-0.5923278189201442</v>
       </c>
       <c r="F93">
-        <v>-0.2739159706290287</v>
+        <v>-0.6280405235760007</v>
       </c>
       <c r="G93">
-        <v>-0.1363411045564695</v>
+        <v>-0.6898800973849593</v>
       </c>
       <c r="H93">
-        <v>-0.0711279664528825</v>
+        <v>0.03032760524306516</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.4045025286374687</v>
+        <v>-0.3842355145432335</v>
       </c>
       <c r="C94">
-        <v>0.2232843866926863</v>
+        <v>0.1573627296000159</v>
       </c>
       <c r="D94">
-        <v>-0.2438343885921198</v>
+        <v>-0.2710554941881149</v>
       </c>
       <c r="E94">
-        <v>-0.422719326891674</v>
+        <v>-0.4750369753088011</v>
       </c>
       <c r="F94">
-        <v>-0.6184692663751982</v>
+        <v>-0.4784695511753428</v>
       </c>
       <c r="G94">
-        <v>-0.3018943855417989</v>
+        <v>-0.4868974708010615</v>
       </c>
       <c r="H94">
-        <v>-0.14229258005313</v>
+        <v>-0.07571885744422892</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.6080047310032479</v>
+        <v>-0.003567978824224735</v>
       </c>
       <c r="C95">
-        <v>0.558538964894668</v>
+        <v>0.002051649803090702</v>
       </c>
       <c r="D95">
-        <v>-0.5340407561778562</v>
+        <v>-0.001521182908359435</v>
       </c>
       <c r="E95">
-        <v>-0.6005955016418575</v>
+        <v>-0.004506743974199471</v>
       </c>
       <c r="F95">
-        <v>-0.7131657919750601</v>
+        <v>-0.00422483929257156</v>
       </c>
       <c r="G95">
-        <v>-0.5642028045794837</v>
+        <v>-0.004629246574907104</v>
       </c>
       <c r="H95">
-        <v>-0.0893016599720121</v>
+        <v>-0.002339046900804145</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.5731876796479207</v>
+        <v>-0.3733905671148072</v>
       </c>
       <c r="C96">
-        <v>0.1194450083593089</v>
+        <v>0.2294484262165062</v>
       </c>
       <c r="D96">
-        <v>-0.3603248557042945</v>
+        <v>-0.3579523496463554</v>
       </c>
       <c r="E96">
-        <v>-0.6570382413467725</v>
+        <v>-0.4630974304658086</v>
       </c>
       <c r="F96">
-        <v>-0.6144317487088171</v>
+        <v>-0.4651401730850989</v>
       </c>
       <c r="G96">
-        <v>-0.3224645034517337</v>
+        <v>-0.3972843605843542</v>
       </c>
       <c r="H96">
-        <v>-0.339301761279445</v>
+        <v>0.1379532610193432</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.1819298027649665</v>
+        <v>-0.003491765538860993</v>
       </c>
       <c r="C97">
-        <v>0.07711737659666008</v>
+        <v>0.001966149559021894</v>
       </c>
       <c r="D97">
-        <v>-0.1995897014268146</v>
+        <v>-0.002621626013285878</v>
       </c>
       <c r="E97">
-        <v>-0.2508515523052502</v>
+        <v>-0.004216253581343184</v>
       </c>
       <c r="F97">
-        <v>-0.2161063769945031</v>
+        <v>-0.004121376753069728</v>
       </c>
       <c r="G97">
-        <v>-0.1380778207151115</v>
+        <v>-0.004384479071475077</v>
       </c>
       <c r="H97">
-        <v>-0.08427955285599184</v>
+        <v>-0.002312633040342888</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.1930540797081196</v>
+        <v>-0.003053873670989343</v>
       </c>
       <c r="C98">
-        <v>0.09533312399670726</v>
+        <v>0.0002416527335283144</v>
       </c>
       <c r="D98">
-        <v>-0.1613496663446243</v>
+        <v>-0.002814553036007548</v>
       </c>
       <c r="E98">
-        <v>-0.2298612024353797</v>
+        <v>-0.003573104090641628</v>
       </c>
       <c r="F98">
-        <v>-0.2653495310903741</v>
+        <v>-0.003252531125833119</v>
       </c>
       <c r="G98">
-        <v>-0.1738330615578338</v>
+        <v>-0.004571237649475095</v>
       </c>
       <c r="H98">
-        <v>-0.06937397280265295</v>
+        <v>-0.003010327800843693</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.2933312930709935</v>
+        <v>-0.6364672238611392</v>
       </c>
       <c r="C99">
-        <v>0.2470426001157859</v>
+        <v>0.6052992022911223</v>
       </c>
       <c r="D99">
-        <v>-0.3626197010701436</v>
+        <v>-0.8307236020997614</v>
       </c>
       <c r="E99">
-        <v>-0.4689256173490752</v>
+        <v>-0.6242101037160098</v>
       </c>
       <c r="F99">
-        <v>-0.4572834958322499</v>
+        <v>-0.8061720402144337</v>
       </c>
       <c r="G99">
-        <v>-0.09931500299682983</v>
+        <v>-0.442008571617491</v>
       </c>
       <c r="H99">
-        <v>-0.1196032953440432</v>
+        <v>-0.01431523459543693</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.1830095304977973</v>
+        <v>-0.4403636307754303</v>
       </c>
       <c r="C100">
-        <v>0.07217038537911516</v>
+        <v>0.288167447924378</v>
       </c>
       <c r="D100">
-        <v>-0.1546735623761016</v>
+        <v>-0.5237243035312689</v>
       </c>
       <c r="E100">
-        <v>-0.270629150555903</v>
+        <v>-0.3376241899428595</v>
       </c>
       <c r="F100">
-        <v>-0.2504659905852978</v>
+        <v>-0.5896007032876952</v>
       </c>
       <c r="G100">
-        <v>-0.1621594246448093</v>
+        <v>-0.6450618630153839</v>
       </c>
       <c r="H100">
-        <v>-0.0112726983476898</v>
+        <v>0.08917849582104045</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.643704864299072</v>
+        <v>-0.2218548560617271</v>
       </c>
       <c r="C101">
-        <v>0.5963955903420488</v>
+        <v>0.09477265855487797</v>
       </c>
       <c r="D101">
-        <v>-0.5090626949370062</v>
+        <v>-0.172581658732373</v>
       </c>
       <c r="E101">
-        <v>-0.4354749726236122</v>
+        <v>-0.3133215599794026</v>
       </c>
       <c r="F101">
-        <v>-0.9023613157217879</v>
+        <v>-0.228943330704027</v>
       </c>
       <c r="G101">
-        <v>-0.6224342762483474</v>
+        <v>-0.1951760423834802</v>
       </c>
       <c r="H101">
-        <v>0.007576851065085294</v>
+        <v>-0.03369623216830644</v>
       </c>
     </row>
   </sheetData>
